--- a/aircraft/reports/manufacturer/Beech/aircraft-type-pie-chart.xlsx
+++ b/aircraft/reports/manufacturer/Beech/aircraft-type-pie-chart.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2146,6 +2146,128 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15511</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Seychelles International Airport</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Seychelles Islands Development Co</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>S7DES</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>SEZ</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>DES</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>S7-DES</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>UE-284</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1900D</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Beech</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15513</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45899</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Seychelles International Airport</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Seychelles Islands Development Co</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>S7ALP</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>DES</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>SEZ</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>S7-ALP</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>UE-397</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1900D</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Beech</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
